--- a/2018沉迷收肾-排谷.xlsx
+++ b/2018沉迷收肾-排谷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="168">
   <si>
     <t>1.8七八弹星挂</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -319,6 +319,374 @@
   </si>
   <si>
     <t>茨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16一番赏café心吧唧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mika</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕太</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mako</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友也</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飒马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥觞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鸢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花吃爆配比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苒柒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maruka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海all剩余</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋萄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵绵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.17三代推吧唧vol.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗奈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿墨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.17三星方形亚克力挂件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱吱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -349,12 +717,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,10 +743,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1378,8 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1051,9 +1427,9 @@
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -1160,9 +1536,9 @@
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -1210,9 +1586,9 @@
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -1238,7 +1614,7 @@
       <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -1264,13 +1640,1479 @@
       <c r="G23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="O72" t="s">
+        <v>160</v>
+      </c>
+      <c r="P72" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>158</v>
+      </c>
+      <c r="R72" t="s">
+        <v>125</v>
+      </c>
+      <c r="S72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" t="s">
+        <v>146</v>
+      </c>
+      <c r="K73" t="s">
+        <v>146</v>
+      </c>
+      <c r="L73" t="s">
+        <v>146</v>
+      </c>
+      <c r="M73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K74" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" t="s">
+        <v>144</v>
+      </c>
+      <c r="M74" t="s">
+        <v>144</v>
+      </c>
+      <c r="N74" t="s">
+        <v>133</v>
+      </c>
+      <c r="O74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" t="s">
+        <v>139</v>
+      </c>
+      <c r="I75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75" t="s">
+        <v>139</v>
+      </c>
+      <c r="L75" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" t="s">
+        <v>139</v>
+      </c>
+      <c r="N75" t="s">
+        <v>139</v>
+      </c>
+      <c r="O75" t="s">
+        <v>139</v>
+      </c>
+      <c r="P75" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>133</v>
+      </c>
+      <c r="R75" t="s">
+        <v>125</v>
+      </c>
+      <c r="S75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" t="s">
+        <v>133</v>
+      </c>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" t="s">
+        <v>160</v>
+      </c>
+      <c r="N76" t="s">
+        <v>159</v>
+      </c>
+      <c r="O76" t="s">
+        <v>126</v>
+      </c>
+      <c r="P76" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" t="s">
+        <v>140</v>
+      </c>
+      <c r="H84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" t="s">
+        <v>141</v>
+      </c>
+      <c r="G89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>129</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" t="s">
+        <v>135</v>
+      </c>
+      <c r="G91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" t="s">
+        <v>138</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s">
+        <v>139</v>
+      </c>
+      <c r="I95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>117</v>
+      </c>
+      <c r="G96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" t="s">
+        <v>143</v>
+      </c>
+      <c r="I96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F99" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2018沉迷收肾-排谷.xlsx
+++ b/2018沉迷收肾-排谷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="268">
   <si>
     <t>1.8七八弹星挂</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -687,6 +687,406 @@
   </si>
   <si>
     <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.19国服许愿吧唧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚屿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕太</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mika</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飒马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mako</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友也</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥觞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱吱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鸢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗奈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苒柒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maruka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鸢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱吱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久瑟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久瑟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.22无背景相片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥觞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1050,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2047,9 +2447,15 @@
       <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="C47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
@@ -2340,6 +2746,15 @@
       <c r="B65" t="s">
         <v>105</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="F65" t="s">
         <v>157</v>
       </c>
@@ -2489,6 +2904,22 @@
       <c r="B72" t="s">
         <v>83</v>
       </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="O72" t="s">
         <v>160</v>
       </c>
@@ -2575,10 +3006,10 @@
         <v>144</v>
       </c>
       <c r="L74" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="M74" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="N74" t="s">
         <v>133</v>
@@ -2628,7 +3059,7 @@
         <v>139</v>
       </c>
       <c r="O75" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="P75" t="s">
         <v>159</v>
@@ -2666,7 +3097,7 @@
         <v>133</v>
       </c>
       <c r="I76" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="J76" t="s">
         <v>130</v>
@@ -2675,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="L76" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s">
         <v>160</v>
@@ -2743,6 +3174,10 @@
       <c r="B79" t="s">
         <v>101</v>
       </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
       <c r="G79" t="s">
         <v>155</v>
       </c>
@@ -2771,6 +3206,18 @@
       <c r="B81" t="s">
         <v>103</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="G81" t="s">
         <v>155</v>
       </c>
@@ -2805,6 +3252,12 @@
       <c r="B83" t="s">
         <v>153</v>
       </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
       <c r="I83" t="s">
         <v>155</v>
       </c>
@@ -2822,6 +3275,9 @@
       <c r="E84" t="s">
         <v>156</v>
       </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
       <c r="G84" t="s">
         <v>140</v>
       </c>
@@ -2861,6 +3317,9 @@
       <c r="D88" t="s">
         <v>105</v>
       </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
       <c r="G88" t="s">
         <v>106</v>
       </c>
@@ -2960,7 +3419,7 @@
         <v>138</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3005,6 +3464,9 @@
       <c r="G94" t="s">
         <v>83</v>
       </c>
+      <c r="H94" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3052,7 +3514,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -3069,7 +3531,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -3092,7 +3554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -3109,9 +3571,645 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>171</v>
+      </c>
+      <c r="G103" t="s">
+        <v>185</v>
+      </c>
+      <c r="M103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>172</v>
+      </c>
+      <c r="G104" t="s">
+        <v>186</v>
+      </c>
+      <c r="H104" t="s">
+        <v>213</v>
+      </c>
+      <c r="I104" t="s">
+        <v>213</v>
+      </c>
+      <c r="J104" t="s">
+        <v>213</v>
+      </c>
+      <c r="K104" t="s">
+        <v>213</v>
+      </c>
+      <c r="L104" t="s">
+        <v>213</v>
+      </c>
+      <c r="M104" t="s">
+        <v>209</v>
+      </c>
+      <c r="N104" t="s">
+        <v>168</v>
+      </c>
+      <c r="O104" t="s">
+        <v>168</v>
+      </c>
+      <c r="P104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" t="s">
+        <v>237</v>
+      </c>
+      <c r="G106" t="s">
+        <v>188</v>
+      </c>
+      <c r="H106" t="s">
+        <v>227</v>
+      </c>
+      <c r="I106" t="s">
+        <v>227</v>
+      </c>
+      <c r="J106" t="s">
+        <v>227</v>
+      </c>
+      <c r="M106" t="s">
+        <v>207</v>
+      </c>
+      <c r="N106" t="s">
+        <v>212</v>
+      </c>
+      <c r="O106" t="s">
+        <v>212</v>
+      </c>
+      <c r="P106" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" t="s">
+        <v>229</v>
+      </c>
+      <c r="J107" t="s">
+        <v>229</v>
+      </c>
+      <c r="K107" t="s">
+        <v>229</v>
+      </c>
+      <c r="L107" t="s">
+        <v>229</v>
+      </c>
+      <c r="M107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H108" t="s">
+        <v>214</v>
+      </c>
+      <c r="I108" t="s">
+        <v>214</v>
+      </c>
+      <c r="J108" t="s">
+        <v>215</v>
+      </c>
+      <c r="K108" t="s">
+        <v>215</v>
+      </c>
+      <c r="L108" t="s">
+        <v>215</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>221</v>
+      </c>
+      <c r="O108" t="s">
+        <v>221</v>
+      </c>
+      <c r="P108" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>220</v>
+      </c>
+      <c r="R108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" t="s">
+        <v>191</v>
+      </c>
+      <c r="H109" t="s">
+        <v>235</v>
+      </c>
+      <c r="I109" t="s">
+        <v>235</v>
+      </c>
+      <c r="J109" t="s">
+        <v>235</v>
+      </c>
+      <c r="K109" t="s">
+        <v>235</v>
+      </c>
+      <c r="L109" t="s">
+        <v>235</v>
+      </c>
+      <c r="M109" t="s">
+        <v>204</v>
+      </c>
+      <c r="N109" t="s">
+        <v>215</v>
+      </c>
+      <c r="O109" t="s">
+        <v>215</v>
+      </c>
+      <c r="P109" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>215</v>
+      </c>
+      <c r="R109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" t="s">
+        <v>192</v>
+      </c>
+      <c r="H110" t="s">
+        <v>216</v>
+      </c>
+      <c r="I110" t="s">
+        <v>216</v>
+      </c>
+      <c r="J110" t="s">
+        <v>216</v>
+      </c>
+      <c r="K110" t="s">
+        <v>216</v>
+      </c>
+      <c r="L110" t="s">
+        <v>216</v>
+      </c>
+      <c r="M110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111" t="s">
+        <v>193</v>
+      </c>
+      <c r="H111" t="s">
+        <v>231</v>
+      </c>
+      <c r="I111" t="s">
+        <v>231</v>
+      </c>
+      <c r="J111" t="s">
+        <v>231</v>
+      </c>
+      <c r="K111" t="s">
+        <v>231</v>
+      </c>
+      <c r="L111" t="s">
+        <v>231</v>
+      </c>
+      <c r="M111" t="s">
+        <v>202</v>
+      </c>
+      <c r="N111" t="s">
+        <v>234</v>
+      </c>
+      <c r="O111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" t="s">
+        <v>194</v>
+      </c>
+      <c r="H112" t="s">
+        <v>232</v>
+      </c>
+      <c r="I112" t="s">
+        <v>230</v>
+      </c>
+      <c r="J112" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112" t="s">
+        <v>230</v>
+      </c>
+      <c r="L112" t="s">
+        <v>230</v>
+      </c>
+      <c r="M112" t="s">
+        <v>201</v>
+      </c>
+      <c r="N112" t="s">
+        <v>222</v>
+      </c>
+      <c r="O112" t="s">
+        <v>222</v>
+      </c>
+      <c r="P112" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>222</v>
+      </c>
+      <c r="R112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
+        <v>220</v>
+      </c>
+      <c r="G113" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" t="s">
+        <v>230</v>
+      </c>
+      <c r="I113" t="s">
+        <v>230</v>
+      </c>
+      <c r="J113" t="s">
+        <v>230</v>
+      </c>
+      <c r="K113" t="s">
+        <v>219</v>
+      </c>
+      <c r="L113" t="s">
+        <v>219</v>
+      </c>
+      <c r="M113" t="s">
+        <v>200</v>
+      </c>
+      <c r="N113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" t="s">
+        <v>211</v>
+      </c>
+      <c r="F114" t="s">
+        <v>211</v>
+      </c>
+      <c r="G114" t="s">
+        <v>196</v>
+      </c>
+      <c r="H114" t="s">
+        <v>227</v>
+      </c>
+      <c r="I114" t="s">
+        <v>227</v>
+      </c>
+      <c r="J114" t="s">
+        <v>227</v>
+      </c>
+      <c r="M114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" t="s">
+        <v>197</v>
+      </c>
+      <c r="M115" t="s">
+        <v>198</v>
+      </c>
+      <c r="N115" t="s">
+        <v>211</v>
+      </c>
+      <c r="O115" t="s">
+        <v>211</v>
+      </c>
+      <c r="P115" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>211</v>
+      </c>
+      <c r="R115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>216</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>242</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>222</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>243</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
+        <v>244</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>245</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" t="s">
+        <v>267</v>
+      </c>
+      <c r="D125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/2018沉迷收肾-排谷.xlsx
+++ b/2018沉迷收肾-排谷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="272">
   <si>
     <t>1.8七八弹星挂</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1087,6 +1087,22 @@
   </si>
   <si>
     <t>动动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青井</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1450,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3777,6 +3793,18 @@
       <c r="A109" t="s">
         <v>178</v>
       </c>
+      <c r="B109" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" t="s">
+        <v>269</v>
+      </c>
+      <c r="D109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" t="s">
+        <v>269</v>
+      </c>
       <c r="G109" t="s">
         <v>191</v>
       </c>
@@ -3986,6 +4014,9 @@
       <c r="N113" t="s">
         <v>233</v>
       </c>
+      <c r="O113" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -4063,153 +4094,184 @@
       <c r="B117">
         <v>2</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>241</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>216</v>
-      </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-      <c r="G117" t="s">
-        <v>242</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>222</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117" t="s">
-        <v>243</v>
-      </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117" t="s">
-        <v>244</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117" t="s">
-        <v>245</v>
-      </c>
-      <c r="P117">
+      <c r="B118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>216</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>253</v>
-      </c>
-      <c r="B120" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" t="s">
-        <v>266</v>
-      </c>
-      <c r="D120" t="s">
-        <v>266</v>
+        <v>242</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>254</v>
-      </c>
-      <c r="B121" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>243</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>256</v>
-      </c>
-      <c r="B123" t="s">
-        <v>263</v>
-      </c>
-      <c r="C123" t="s">
-        <v>263</v>
-      </c>
-      <c r="D123" t="s">
-        <v>263</v>
+        <v>244</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>257</v>
-      </c>
-      <c r="B124" t="s">
-        <v>265</v>
+        <v>245</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>258</v>
-      </c>
-      <c r="B125" t="s">
-        <v>267</v>
-      </c>
-      <c r="C125" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>259</v>
+        <v>268</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" t="s">
+        <v>263</v>
+      </c>
+      <c r="D129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="s">
+        <v>263</v>
+      </c>
+      <c r="D131" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>267</v>
+      </c>
+      <c r="D133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>261</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B136" t="s">
         <v>264</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C136" t="s">
         <v>264</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D136" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>262</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B137" t="s">
         <v>265</v>
+      </c>
+      <c r="C137" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/2018沉迷收肾-排谷.xlsx
+++ b/2018沉迷收肾-排谷.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="1月" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="目录" sheetId="2" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="287">
   <si>
     <t>1.8七八弹星挂</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1014,95 +1014,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>小珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.22无背景相片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥觞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿墨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久瑟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>花花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.22无背景相片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英智</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敬人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>岚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千秋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿染</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>滥觞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aimer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>眠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝贝</t>
+    <t>muri</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>青井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星挂7&amp;8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一番café心吧唧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三代推吧唧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星方形亚克力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服许愿吧唧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无背景照片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1466,10 +1526,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2920,16 +3031,36 @@
       <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="C72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="M72" s="2" t="s">
         <v>248</v>
       </c>
@@ -3113,7 +3244,7 @@
         <v>133</v>
       </c>
       <c r="I76" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J76" t="s">
         <v>130</v>
@@ -3122,19 +3253,19 @@
         <v>130</v>
       </c>
       <c r="L76" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="N76" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="O76" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="P76" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="Q76" t="s">
         <v>155</v>
@@ -3336,9 +3467,12 @@
       <c r="E88" t="s">
         <v>168</v>
       </c>
+      <c r="F88" s="4"/>
       <c r="G88" t="s">
         <v>106</v>
       </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -3356,9 +3490,12 @@
       <c r="E89" t="s">
         <v>141</v>
       </c>
+      <c r="F89" s="4"/>
       <c r="G89" t="s">
         <v>107</v>
       </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3376,6 +3513,7 @@
       <c r="E90" t="s">
         <v>148</v>
       </c>
+      <c r="F90" s="4"/>
       <c r="G90" t="s">
         <v>80</v>
       </c>
@@ -3428,6 +3566,8 @@
       <c r="D92" t="s">
         <v>85</v>
       </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
       <c r="G92" t="s">
         <v>112</v>
       </c>
@@ -3435,7 +3575,7 @@
         <v>138</v>
       </c>
       <c r="I92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3460,6 +3600,8 @@
       <c r="G93" t="s">
         <v>113</v>
       </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3477,17 +3619,23 @@
       <c r="E94" t="s">
         <v>157</v>
       </c>
+      <c r="F94" s="4"/>
       <c r="G94" t="s">
         <v>83</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
       <c r="D95" t="s">
         <v>115</v>
       </c>
@@ -3520,6 +3668,8 @@
       <c r="D96" t="s">
         <v>117</v>
       </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
       <c r="G96" t="s">
         <v>89</v>
       </c>
@@ -3537,15 +3687,19 @@
       <c r="B97" t="s">
         <v>157</v>
       </c>
+      <c r="C97" s="4"/>
       <c r="D97" t="s">
         <v>99</v>
       </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
       <c r="G97" t="s">
         <v>116</v>
       </c>
       <c r="H97" t="s">
         <v>160</v>
       </c>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3569,11 +3723,15 @@
       <c r="G98" t="s">
         <v>98</v>
       </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" t="s">
         <v>101</v>
       </c>
@@ -3586,11 +3744,15 @@
       <c r="G99" t="s">
         <v>103</v>
       </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3612,6 +3774,11 @@
       <c r="A104" t="s">
         <v>172</v>
       </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
       <c r="G104" t="s">
         <v>186</v>
       </c>
@@ -3642,6 +3809,8 @@
       <c r="P104" t="s">
         <v>168</v>
       </c>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -3665,9 +3834,25 @@
       <c r="G105" t="s">
         <v>187</v>
       </c>
+      <c r="H105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
       <c r="M105" t="s">
         <v>208</v>
       </c>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -3685,6 +3870,7 @@
       <c r="E106" t="s">
         <v>237</v>
       </c>
+      <c r="F106" s="4"/>
       <c r="G106" t="s">
         <v>188</v>
       </c>
@@ -3697,6 +3883,8 @@
       <c r="J106" t="s">
         <v>227</v>
       </c>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
       <c r="M106" t="s">
         <v>207</v>
       </c>
@@ -3712,6 +3900,7 @@
       <c r="Q106" t="s">
         <v>225</v>
       </c>
+      <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -3726,6 +3915,8 @@
       <c r="D107" t="s">
         <v>236</v>
       </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
       <c r="G107" t="s">
         <v>189</v>
       </c>
@@ -3747,11 +3938,21 @@
       <c r="M107" t="s">
         <v>206</v>
       </c>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>177</v>
       </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
       <c r="G108" t="s">
         <v>190</v>
       </c>
@@ -3794,17 +3995,18 @@
         <v>178</v>
       </c>
       <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" t="s">
         <v>268</v>
       </c>
-      <c r="C109" t="s">
-        <v>269</v>
-      </c>
       <c r="D109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F109" s="4"/>
       <c r="G109" t="s">
         <v>191</v>
       </c>
@@ -3882,11 +4084,21 @@
       <c r="M110" t="s">
         <v>203</v>
       </c>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
       <c r="G111" t="s">
         <v>193</v>
       </c>
@@ -3914,6 +4126,9 @@
       <c r="O111" t="s">
         <v>234</v>
       </c>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4015,8 +4230,11 @@
         <v>233</v>
       </c>
       <c r="O113" t="s">
-        <v>268</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -4049,9 +4267,16 @@
       <c r="J114" t="s">
         <v>227</v>
       </c>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
       <c r="M114" t="s">
         <v>199</v>
       </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -4060,9 +4285,18 @@
       <c r="B115" t="s">
         <v>226</v>
       </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
       <c r="G115" t="s">
         <v>197</v>
       </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
       <c r="M115" t="s">
         <v>198</v>
       </c>
@@ -4153,7 +4387,7 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4161,133 +4395,130 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>255</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>260</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D137" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
